--- a/EJ2/Mediciones/Mediciones tp2 ej2 bode LM833.xlsx
+++ b/EJ2/Mediciones/Mediciones tp2 ej2 bode LM833.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Desktop\ITBA\5C TC\TP2\TP2\EJ2\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76116491-BE5F-451E-98D4-9BA268AE668F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EA3CEC-51B3-46D8-82CC-91E878FC6BE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{725EB9F4-FAC7-4A66-873D-D6BC0385B064}"/>
   </bookViews>
@@ -3155,7 +3155,7 @@
   <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3194,7 +3194,7 @@
         <v>6.1</v>
       </c>
       <c r="D2">
-        <f>20*LOG(C2/(B2/1000), 10)</f>
+        <f t="shared" ref="D2:D33" si="0">20*LOG(C2/(B2/1000), 10)</f>
         <v>38.804635899930197</v>
       </c>
       <c r="E2">
@@ -3212,7 +3212,7 @@
         <v>6.1</v>
       </c>
       <c r="D3">
-        <f>20*LOG(C3/(B3/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>38.804635899930197</v>
       </c>
       <c r="E3">
@@ -3230,7 +3230,7 @@
         <v>6.1</v>
       </c>
       <c r="D4">
-        <f>20*LOG(C4/(B4/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>38.804635899930197</v>
       </c>
       <c r="E4">
@@ -3248,7 +3248,7 @@
         <v>6.1</v>
       </c>
       <c r="D5">
-        <f>20*LOG(C5/(B5/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>38.804635899930197</v>
       </c>
       <c r="E5">
@@ -3266,7 +3266,7 @@
         <v>6.2</v>
       </c>
       <c r="D6">
-        <f>20*LOG(C6/(B6/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>38.945872989679941</v>
       </c>
       <c r="E6">
@@ -3284,7 +3284,7 @@
         <v>6.25</v>
       </c>
       <c r="D7">
-        <f>20*LOG(C7/(B7/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>39.015639546596361</v>
       </c>
       <c r="E7">
@@ -3302,7 +3302,7 @@
         <v>6.25</v>
       </c>
       <c r="D8">
-        <f>20*LOG(C8/(B8/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>39.015639546596361</v>
       </c>
       <c r="E8">
@@ -3320,7 +3320,7 @@
         <v>6.1</v>
       </c>
       <c r="D9">
-        <f>20*LOG(C9/(B9/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>38.804635899930197</v>
       </c>
       <c r="E9">
@@ -3338,7 +3338,7 @@
         <v>6.1</v>
       </c>
       <c r="D10">
-        <f>20*LOG(C10/(B10/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>38.804635899930197</v>
       </c>
       <c r="E10">
@@ -3356,7 +3356,7 @@
         <v>6.25</v>
       </c>
       <c r="D11">
-        <f>20*LOG(C11/(B11/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>39.015639546596361</v>
       </c>
       <c r="E11">
@@ -3374,7 +3374,7 @@
         <v>7.03</v>
       </c>
       <c r="D12">
-        <f>20*LOG(C12/(B12/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>40.037145700111338</v>
       </c>
       <c r="E12">
@@ -3392,7 +3392,7 @@
         <v>7.66</v>
       </c>
       <c r="D13">
-        <f>20*LOG(C13/(B13/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>40.782614592366933</v>
       </c>
       <c r="E13">
@@ -3410,7 +3410,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="D14">
-        <f>20*LOG(C14/(B14/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>41.458645935412463</v>
       </c>
       <c r="E14">
@@ -3428,7 +3428,7 @@
         <v>8.44</v>
       </c>
       <c r="D15">
-        <f>20*LOG(C15/(B15/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>41.624888132227966</v>
       </c>
       <c r="E15">
@@ -3446,7 +3446,7 @@
         <v>8.6</v>
       </c>
       <c r="D16">
-        <f>20*LOG(C16/(B16/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>41.788008224586207</v>
       </c>
       <c r="E16">
@@ -3464,7 +3464,7 @@
         <v>8.75</v>
       </c>
       <c r="D17">
-        <f>20*LOG(C17/(B17/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>41.938200260161118</v>
       </c>
       <c r="E17">
@@ -3482,7 +3482,7 @@
         <v>8.9</v>
       </c>
       <c r="D18">
-        <f>20*LOG(C18/(B18/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>42.085839332613119</v>
       </c>
       <c r="E18">
@@ -3500,7 +3500,7 @@
         <v>9.06</v>
       </c>
       <c r="D19">
-        <f>20*LOG(C19/(B19/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>42.240603153251122</v>
       </c>
       <c r="E19">
@@ -3518,7 +3518,7 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="D20">
-        <f>20*LOG(C20/(B20/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>42.392657620787446</v>
       </c>
       <c r="E20">
@@ -3536,7 +3536,7 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="D21">
-        <f>20*LOG(C21/(B21/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>42.392657620787446</v>
       </c>
       <c r="E21">
@@ -3554,7 +3554,7 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="D22">
-        <f>20*LOG(C22/(B22/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>42.679897212481386</v>
       </c>
       <c r="E22">
@@ -3572,7 +3572,7 @@
         <v>9.84</v>
       </c>
       <c r="D23">
-        <f>20*LOG(C23/(B23/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>42.957941168341691</v>
       </c>
       <c r="E23">
@@ -3590,7 +3590,7 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <f>20*LOG(C24/(B24/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>43.098039199714854</v>
       </c>
       <c r="E24">
@@ -3608,7 +3608,7 @@
         <v>10.16</v>
       </c>
       <c r="D25">
-        <f>20*LOG(C25/(B25/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>43.235913358672875</v>
       </c>
       <c r="E25">
@@ -3626,7 +3626,7 @@
         <v>10.46</v>
       </c>
       <c r="D26">
-        <f>20*LOG(C26/(B26/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>43.48867289033997</v>
       </c>
       <c r="E26">
@@ -3644,7 +3644,7 @@
         <v>10.78</v>
       </c>
       <c r="D27">
-        <f>20*LOG(C27/(B27/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>43.750414416729257</v>
       </c>
       <c r="E27">
@@ -3662,7 +3662,7 @@
         <v>10.94</v>
       </c>
       <c r="D28">
-        <f>20*LOG(C28/(B28/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>43.878385639663094</v>
       </c>
       <c r="E28">
@@ -3680,7 +3680,7 @@
         <v>11.1</v>
       </c>
       <c r="D29">
-        <f>20*LOG(C29/(B29/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>44.004498775448006</v>
       </c>
       <c r="E29">
@@ -3698,7 +3698,7 @@
         <v>11.25</v>
       </c>
       <c r="D30">
-        <f>20*LOG(C30/(B30/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>44.121089648662483</v>
       </c>
       <c r="E30">
@@ -3716,7 +3716,7 @@
         <v>11.4</v>
       </c>
       <c r="D31">
-        <f>20*LOG(C31/(B31/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>44.236136226444316</v>
       </c>
       <c r="E31">
@@ -3734,7 +3734,7 @@
         <v>11.56</v>
       </c>
       <c r="D32">
-        <f>20*LOG(C32/(B32/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>44.357195881405069</v>
       </c>
       <c r="E32">
@@ -3752,7 +3752,7 @@
         <v>11.56</v>
       </c>
       <c r="D33">
-        <f>20*LOG(C33/(B33/1000), 10)</f>
+        <f t="shared" si="0"/>
         <v>44.357195881405069</v>
       </c>
       <c r="E33">
@@ -3770,7 +3770,7 @@
         <v>11.72</v>
       </c>
       <c r="D34">
-        <f>20*LOG(C34/(B34/1000), 10)</f>
+        <f t="shared" ref="D34:D65" si="1">20*LOG(C34/(B34/1000), 10)</f>
         <v>44.47659143335629</v>
       </c>
       <c r="E34">
@@ -3788,7 +3788,7 @@
         <v>11.72</v>
       </c>
       <c r="D35">
-        <f>20*LOG(C35/(B35/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>44.47659143335629</v>
       </c>
       <c r="E35">
@@ -3806,7 +3806,7 @@
         <v>11.72</v>
       </c>
       <c r="D36">
-        <f>20*LOG(C36/(B36/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>44.47659143335629</v>
       </c>
       <c r="E36">
@@ -3824,7 +3824,7 @@
         <v>11.72</v>
       </c>
       <c r="D37">
-        <f>20*LOG(C37/(B37/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>44.47659143335629</v>
       </c>
       <c r="E37">
@@ -3842,7 +3842,7 @@
         <v>11.72</v>
       </c>
       <c r="D38">
-        <f>20*LOG(C38/(B38/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>44.47659143335629</v>
       </c>
       <c r="E38">
@@ -3860,7 +3860,7 @@
         <v>11.56</v>
       </c>
       <c r="D39">
-        <f>20*LOG(C39/(B39/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>44.357195881405069</v>
       </c>
       <c r="E39">
@@ -3878,7 +3878,7 @@
         <v>11.4</v>
       </c>
       <c r="D40">
-        <f>20*LOG(C40/(B40/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>44.236136226444316</v>
       </c>
       <c r="E40">
@@ -3896,7 +3896,7 @@
         <v>11.1</v>
       </c>
       <c r="D41">
-        <f>20*LOG(C41/(B41/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>44.004498775448006</v>
       </c>
       <c r="E41">
@@ -3914,7 +3914,7 @@
         <v>10.94</v>
       </c>
       <c r="D42">
-        <f>20*LOG(C42/(B42/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>43.878385639663094</v>
       </c>
       <c r="E42">
@@ -3932,7 +3932,7 @@
         <v>10.62</v>
       </c>
       <c r="D43">
-        <f>20*LOG(C43/(B43/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>43.62052953462387</v>
       </c>
       <c r="E43">
@@ -3950,7 +3950,7 @@
         <v>10.31</v>
       </c>
       <c r="D44">
-        <f>20*LOG(C44/(B44/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>43.363212505385185</v>
       </c>
       <c r="E44">
@@ -3968,7 +3968,7 @@
         <v>10.16</v>
       </c>
       <c r="D45">
-        <f>20*LOG(C45/(B45/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>43.235913358672875</v>
       </c>
       <c r="E45">
@@ -3986,7 +3986,7 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="D46">
-        <f>20*LOG(C46/(B46/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>42.679897212481386</v>
       </c>
       <c r="E46">
@@ -4004,7 +4004,7 @@
         <v>8.9</v>
       </c>
       <c r="D47">
-        <f>20*LOG(C47/(B47/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>42.085839332613119</v>
       </c>
       <c r="E47">
@@ -4022,7 +4022,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="D48">
-        <f>20*LOG(C48/(B48/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>41.458645935412463</v>
       </c>
       <c r="E48">
@@ -4040,7 +4040,7 @@
         <v>7.66</v>
       </c>
       <c r="D49">
-        <f>20*LOG(C49/(B49/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>40.782614592366933</v>
       </c>
       <c r="E49">
@@ -4058,7 +4058,7 @@
         <v>7.18</v>
       </c>
       <c r="D50">
-        <f>20*LOG(C50/(B50/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>40.220528084560868</v>
       </c>
       <c r="E50">
@@ -4076,7 +4076,7 @@
         <v>6.72</v>
       </c>
       <c r="D51">
-        <f>20*LOG(C51/(B51/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>39.645424660791363</v>
       </c>
       <c r="E51">
@@ -4094,7 +4094,7 @@
         <v>6.09</v>
       </c>
       <c r="D52">
-        <f>20*LOG(C52/(B52/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>38.790385052372365</v>
       </c>
       <c r="E52">
@@ -4112,7 +4112,7 @@
         <v>5.78</v>
       </c>
       <c r="D53">
-        <f>20*LOG(C53/(B53/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>38.336595968125444</v>
       </c>
       <c r="E53">
@@ -4130,7 +4130,7 @@
         <v>5.47</v>
       </c>
       <c r="D54">
-        <f>20*LOG(C54/(B54/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>37.857785726383476</v>
       </c>
       <c r="E54">
@@ -4148,7 +4148,7 @@
         <v>4.53</v>
       </c>
       <c r="D55">
-        <f>20*LOG(C55/(B55/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>36.220003239971497</v>
       </c>
       <c r="E55">
@@ -4166,7 +4166,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="D56">
-        <f>20*LOG(C56/(B56/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>35.268559871258745</v>
       </c>
       <c r="E56">
@@ -4184,7 +4184,7 @@
         <v>3.44</v>
       </c>
       <c r="D57">
-        <f>20*LOG(C57/(B57/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>33.829208051145464</v>
       </c>
       <c r="E57">
@@ -4202,7 +4202,7 @@
         <v>2.81</v>
       </c>
       <c r="D58">
-        <f>20*LOG(C58/(B58/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>32.072165597816458</v>
       </c>
       <c r="E58">
@@ -4220,7 +4220,7 @@
         <v>2.4</v>
       </c>
       <c r="D59">
-        <f>20*LOG(C59/(B59/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>30.702264033946982</v>
       </c>
       <c r="E59">
@@ -4238,7 +4238,7 @@
         <v>1.9</v>
       </c>
       <c r="D60">
-        <f>20*LOG(C60/(B60/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>28.673111218771439</v>
       </c>
       <c r="E60">
@@ -4256,7 +4256,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D61">
-        <f>20*LOG(C61/(B61/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>29.867169071806959</v>
       </c>
       <c r="E61">
@@ -4274,7 +4274,7 @@
         <v>1.77</v>
       </c>
       <c r="D62">
-        <f>20*LOG(C62/(B62/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>28.057504526950993</v>
       </c>
       <c r="E62">
@@ -4292,7 +4292,7 @@
         <v>0.75</v>
       </c>
       <c r="D63">
-        <f>20*LOG(C63/(B63/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>20.599264467548863</v>
       </c>
       <c r="E63">
@@ -4310,7 +4310,7 @@
         <v>0.65</v>
       </c>
       <c r="D64">
-        <f>20*LOG(C64/(B64/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>19.356306332571972</v>
       </c>
     </row>
@@ -4325,7 +4325,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="D65">
-        <f>20*LOG(C65/(B65/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>18.061799739838868</v>
       </c>
     </row>
@@ -4340,7 +4340,7 @@
         <v>0.5</v>
       </c>
       <c r="D66">
-        <f>20*LOG(C66/(B66/1000), 10)</f>
+        <f t="shared" ref="D66:D97" si="2">20*LOG(C66/(B66/1000), 10)</f>
         <v>17.07743928643524</v>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
         <v>70</v>
       </c>
       <c r="D67" t="e">
-        <f>20*LOG(C67/(B67/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4358,7 +4358,7 @@
         <v>70</v>
       </c>
       <c r="D68" t="e">
-        <f>20*LOG(C68/(B68/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
         <v>70</v>
       </c>
       <c r="D69" t="e">
-        <f>20*LOG(C69/(B69/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
         <v>70</v>
       </c>
       <c r="D70" t="e">
-        <f>20*LOG(C70/(B70/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4385,7 +4385,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="e">
-        <f>20*LOG(C71/(B71/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
         <v>70</v>
       </c>
       <c r="D72" t="e">
-        <f>20*LOG(C72/(B72/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
         <v>70</v>
       </c>
       <c r="D73" t="e">
-        <f>20*LOG(C73/(B73/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
         <v>70</v>
       </c>
       <c r="D74" t="e">
-        <f>20*LOG(C74/(B74/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
         <v>70</v>
       </c>
       <c r="D75" t="e">
-        <f>20*LOG(C75/(B75/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4430,7 +4430,7 @@
         <v>70</v>
       </c>
       <c r="D76" t="e">
-        <f>20*LOG(C76/(B76/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
         <v>70</v>
       </c>
       <c r="D77" t="e">
-        <f>20*LOG(C77/(B77/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
         <v>70</v>
       </c>
       <c r="D78" t="e">
-        <f>20*LOG(C78/(B78/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
         <v>70</v>
       </c>
       <c r="D79" t="e">
-        <f>20*LOG(C79/(B79/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4466,7 +4466,7 @@
         <v>70</v>
       </c>
       <c r="D80" t="e">
-        <f>20*LOG(C80/(B80/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
         <v>70</v>
       </c>
       <c r="D81" t="e">
-        <f>20*LOG(C81/(B81/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
         <v>70</v>
       </c>
       <c r="D82" t="e">
-        <f>20*LOG(C82/(B82/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
         <v>70</v>
       </c>
       <c r="D83" t="e">
-        <f>20*LOG(C83/(B83/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
         <v>70</v>
       </c>
       <c r="D84" t="e">
-        <f>20*LOG(C84/(B84/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
         <v>70</v>
       </c>
       <c r="D85" t="e">
-        <f>20*LOG(C85/(B85/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4520,7 +4520,7 @@
         <v>70</v>
       </c>
       <c r="D86" t="e">
-        <f>20*LOG(C86/(B86/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
         <v>70</v>
       </c>
       <c r="D87" t="e">
-        <f>20*LOG(C87/(B87/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4538,7 +4538,7 @@
         <v>70</v>
       </c>
       <c r="D88" t="e">
-        <f>20*LOG(C88/(B88/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
         <v>70</v>
       </c>
       <c r="D89" t="e">
-        <f>20*LOG(C89/(B89/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
         <v>70</v>
       </c>
       <c r="D90" t="e">
-        <f>20*LOG(C90/(B90/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4565,7 +4565,7 @@
         <v>70</v>
       </c>
       <c r="D91" t="e">
-        <f>20*LOG(C91/(B91/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4574,7 +4574,7 @@
         <v>70</v>
       </c>
       <c r="D92" t="e">
-        <f>20*LOG(C92/(B92/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
         <v>70</v>
       </c>
       <c r="D93" t="e">
-        <f>20*LOG(C93/(B93/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
         <v>70</v>
       </c>
       <c r="D94" t="e">
-        <f>20*LOG(C94/(B94/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
         <v>70</v>
       </c>
       <c r="D95" t="e">
-        <f>20*LOG(C95/(B95/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4610,7 +4610,7 @@
         <v>70</v>
       </c>
       <c r="D96" t="e">
-        <f>20*LOG(C96/(B96/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
         <v>70</v>
       </c>
       <c r="D97" t="e">
-        <f>20*LOG(C97/(B97/1000), 10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
         <v>70</v>
       </c>
       <c r="D98" t="e">
-        <f>20*LOG(C98/(B98/1000), 10)</f>
+        <f t="shared" ref="D98:D129" si="3">20*LOG(C98/(B98/1000), 10)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
         <v>70</v>
       </c>
       <c r="D99" t="e">
-        <f>20*LOG(C99/(B99/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4646,7 +4646,7 @@
         <v>70</v>
       </c>
       <c r="D100" t="e">
-        <f>20*LOG(C100/(B100/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
         <v>70</v>
       </c>
       <c r="D101" t="e">
-        <f>20*LOG(C101/(B101/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
         <v>70</v>
       </c>
       <c r="D102" t="e">
-        <f>20*LOG(C102/(B102/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
         <v>70</v>
       </c>
       <c r="D103" t="e">
-        <f>20*LOG(C103/(B103/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4682,7 +4682,7 @@
         <v>70</v>
       </c>
       <c r="D104" t="e">
-        <f>20*LOG(C104/(B104/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
         <v>70</v>
       </c>
       <c r="D105" t="e">
-        <f>20*LOG(C105/(B105/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4700,7 +4700,7 @@
         <v>70</v>
       </c>
       <c r="D106" t="e">
-        <f>20*LOG(C106/(B106/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
         <v>70</v>
       </c>
       <c r="D107" t="e">
-        <f>20*LOG(C107/(B107/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
         <v>70</v>
       </c>
       <c r="D108" t="e">
-        <f>20*LOG(C108/(B108/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
         <v>70</v>
       </c>
       <c r="D109" t="e">
-        <f>20*LOG(C109/(B109/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4736,7 +4736,7 @@
         <v>70</v>
       </c>
       <c r="D110" t="e">
-        <f>20*LOG(C110/(B110/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4745,7 +4745,7 @@
         <v>70</v>
       </c>
       <c r="D111" t="e">
-        <f>20*LOG(C111/(B111/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
         <v>70</v>
       </c>
       <c r="D112" t="e">
-        <f>20*LOG(C112/(B112/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
         <v>70</v>
       </c>
       <c r="D113" t="e">
-        <f>20*LOG(C113/(B113/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4772,7 +4772,7 @@
         <v>70</v>
       </c>
       <c r="D114" t="e">
-        <f>20*LOG(C114/(B114/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
         <v>70</v>
       </c>
       <c r="D115" t="e">
-        <f>20*LOG(C115/(B115/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
         <v>70</v>
       </c>
       <c r="D116" t="e">
-        <f>20*LOG(C116/(B116/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
         <v>70</v>
       </c>
       <c r="D117" t="e">
-        <f>20*LOG(C117/(B117/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4808,7 +4808,7 @@
         <v>70</v>
       </c>
       <c r="D118" t="e">
-        <f>20*LOG(C118/(B118/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
         <v>70</v>
       </c>
       <c r="D119" t="e">
-        <f>20*LOG(C119/(B119/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4826,7 +4826,7 @@
         <v>70</v>
       </c>
       <c r="D120" t="e">
-        <f>20*LOG(C120/(B120/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
         <v>70</v>
       </c>
       <c r="D121" t="e">
-        <f>20*LOG(C121/(B121/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4844,7 +4844,7 @@
         <v>70</v>
       </c>
       <c r="D122" t="e">
-        <f>20*LOG(C122/(B122/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
         <v>70</v>
       </c>
       <c r="D123" t="e">
-        <f>20*LOG(C123/(B123/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4862,31 +4862,31 @@
         <v>70</v>
       </c>
       <c r="D124" t="e">
-        <f>20*LOG(C124/(B124/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D125" t="e">
-        <f>20*LOG(C125/(B125/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D126" t="e">
-        <f>20*LOG(C126/(B126/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D127" t="e">
-        <f>20*LOG(C127/(B127/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D128" t="e">
-        <f>20*LOG(C128/(B128/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/EJ2/Mediciones/Mediciones tp2 ej2 bode LM833.xlsx
+++ b/EJ2/Mediciones/Mediciones tp2 ej2 bode LM833.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Desktop\ITBA\5C TC\TP2\TP2\EJ2\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EA3CEC-51B3-46D8-82CC-91E878FC6BE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4F28D5-049B-4A91-8CB8-B06D629EBF17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{725EB9F4-FAC7-4A66-873D-D6BC0385B064}"/>
   </bookViews>
@@ -199,10 +199,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$137</c:f>
+              <c:f>Sheet1!$A$2:$A$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -243,170 +243,155 @@
                   <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36000</c:v>
+                  <c:v>37000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37000</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38000</c:v>
+                  <c:v>39000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40000</c:v>
+                  <c:v>41000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41000</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42000</c:v>
+                  <c:v>43000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43000</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45000</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>46000</c:v>
+                  <c:v>47000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>47000</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48000</c:v>
+                  <c:v>49000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>49000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50000</c:v>
+                  <c:v>51000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>51000</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>52000</c:v>
+                  <c:v>53000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53000</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>54000</c:v>
+                  <c:v>55000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>55000</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>56000</c:v>
+                  <c:v>57000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>57000</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>58000</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>59000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>60000</c:v>
+                  <c:v>61000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>61000</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>62000</c:v>
+                  <c:v>63000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>63000</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>64000</c:v>
+                  <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>65000</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>66000</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>68000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>70000</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>72000</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>74000</c:v>
+                  <c:v>76000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>76000</c:v>
+                  <c:v>78000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>78000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>80000</c:v>
+                  <c:v>82000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>82000</c:v>
+                  <c:v>85000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>85000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>90000</c:v>
+                  <c:v>95000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>95000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>100000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>110000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>120000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>130000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>140000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="61">
                   <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$137</c:f>
+              <c:f>Sheet1!$D$2:$D$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>38.804635899930197</c:v>
                 </c:pt>
@@ -447,61 +432,61 @@
                   <c:v>41.458645935412463</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41.624888132227966</c:v>
+                  <c:v>41.788008224586207</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41.788008224586207</c:v>
+                  <c:v>41.938200260161118</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41.938200260161118</c:v>
+                  <c:v>42.085839332613119</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.085839332613119</c:v>
+                  <c:v>42.240603153251122</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.240603153251122</c:v>
+                  <c:v>42.392657620787446</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>42.392657620787446</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.392657620787446</c:v>
+                  <c:v>42.679897212481386</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42.679897212481386</c:v>
+                  <c:v>42.957941168341691</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42.957941168341691</c:v>
+                  <c:v>43.098039199714854</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43.098039199714854</c:v>
+                  <c:v>43.235913358672875</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43.235913358672875</c:v>
+                  <c:v>43.48867289033997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43.48867289033997</c:v>
+                  <c:v>43.750414416729257</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43.750414416729257</c:v>
+                  <c:v>43.878385639663094</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43.878385639663094</c:v>
+                  <c:v>44.004498775448006</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44.004498775448006</c:v>
+                  <c:v>44.121089648662483</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44.121089648662483</c:v>
+                  <c:v>44.236136226444316</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44.236136226444316</c:v>
+                  <c:v>44.357195881405069</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44.357195881405069</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.357195881405069</c:v>
+                  <c:v>44.47659143335629</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44.47659143335629</c:v>
@@ -516,91 +501,82 @@
                   <c:v>44.47659143335629</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44.47659143335629</c:v>
+                  <c:v>44.357195881405069</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44.357195881405069</c:v>
+                  <c:v>44.236136226444316</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44.236136226444316</c:v>
+                  <c:v>44.004498775448006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44.004498775448006</c:v>
+                  <c:v>43.878385639663094</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43.878385639663094</c:v>
+                  <c:v>43.62052953462387</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43.62052953462387</c:v>
+                  <c:v>43.363212505385185</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.363212505385185</c:v>
+                  <c:v>43.235913358672875</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.235913358672875</c:v>
+                  <c:v>42.679897212481386</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42.679897212481386</c:v>
+                  <c:v>42.085839332613119</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42.085839332613119</c:v>
+                  <c:v>41.458645935412463</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41.458645935412463</c:v>
+                  <c:v>40.782614592366933</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>40.782614592366933</c:v>
+                  <c:v>40.220528084560868</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>40.220528084560868</c:v>
+                  <c:v>39.645424660791363</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>39.645424660791363</c:v>
+                  <c:v>38.790385052372365</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>38.790385052372365</c:v>
+                  <c:v>38.336595968125444</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>38.336595968125444</c:v>
+                  <c:v>37.857785726383476</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>37.857785726383476</c:v>
+                  <c:v>36.220003239971497</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>36.220003239971497</c:v>
+                  <c:v>35.268559871258745</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>35.268559871258745</c:v>
+                  <c:v>33.829208051145464</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>33.829208051145464</c:v>
+                  <c:v>32.072165597816458</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32.072165597816458</c:v>
+                  <c:v>30.702264033946982</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>30.702264033946982</c:v>
+                  <c:v>28.673111218771439</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>28.673111218771439</c:v>
+                  <c:v>28.057504526950993</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>29.867169071806959</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>28.057504526950993</c:v>
-                </c:pt>
-                <c:pt idx="61">
                   <c:v>20.599264467548863</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>19.356306332571972</c:v>
-                </c:pt>
                 <c:pt idx="63">
-                  <c:v>18.061799739838868</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>17.07743928643524</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0</c:v>
@@ -780,12 +756,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1074,10 +1044,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$137</c:f>
+              <c:f>Sheet1!$A$2:$A$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1118,170 +1088,155 @@
                   <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36000</c:v>
+                  <c:v>37000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37000</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38000</c:v>
+                  <c:v>39000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40000</c:v>
+                  <c:v>41000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41000</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42000</c:v>
+                  <c:v>43000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43000</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45000</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>46000</c:v>
+                  <c:v>47000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>47000</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48000</c:v>
+                  <c:v>49000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>49000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50000</c:v>
+                  <c:v>51000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>51000</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>52000</c:v>
+                  <c:v>53000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53000</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>54000</c:v>
+                  <c:v>55000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>55000</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>56000</c:v>
+                  <c:v>57000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>57000</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>58000</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>59000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>60000</c:v>
+                  <c:v>61000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>61000</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>62000</c:v>
+                  <c:v>63000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>63000</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>64000</c:v>
+                  <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>65000</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>66000</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>68000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>70000</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>72000</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>74000</c:v>
+                  <c:v>76000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>76000</c:v>
+                  <c:v>78000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>78000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>80000</c:v>
+                  <c:v>82000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>82000</c:v>
+                  <c:v>85000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>85000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>90000</c:v>
+                  <c:v>95000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>95000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>100000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>110000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>120000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>130000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>140000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="61">
                   <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$137</c:f>
+              <c:f>Sheet1!$E$2:$E$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>1.6</c:v>
                 </c:pt>
@@ -1322,150 +1277,144 @@
                   <c:v>-31</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-26</c:v>
+                  <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-32</c:v>
+                  <c:v>-37.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-37.799999999999997</c:v>
+                  <c:v>-39.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-39.5</c:v>
+                  <c:v>-39</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-39</c:v>
+                  <c:v>-45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-45</c:v>
+                  <c:v>-47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-47</c:v>
+                  <c:v>-48</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-48</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-50</c:v>
+                  <c:v>-54</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-54</c:v>
+                  <c:v>-58</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-58</c:v>
+                  <c:v>-61</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-61</c:v>
+                  <c:v>-65</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-65</c:v>
+                  <c:v>-69</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-69</c:v>
+                  <c:v>-70</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-70</c:v>
+                  <c:v>-72</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-72</c:v>
+                  <c:v>-75</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-75</c:v>
+                  <c:v>-77</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-77</c:v>
+                  <c:v>-81</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-81</c:v>
+                  <c:v>-84</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-84</c:v>
+                  <c:v>-88</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-88</c:v>
+                  <c:v>-90</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-90</c:v>
+                  <c:v>-92</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-92</c:v>
+                  <c:v>-94</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-94</c:v>
+                  <c:v>-97</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-97</c:v>
+                  <c:v>-101</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-101</c:v>
+                  <c:v>-105</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-105</c:v>
+                  <c:v>-108</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-108</c:v>
+                  <c:v>-110</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-110</c:v>
+                  <c:v>-112</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-112</c:v>
+                  <c:v>-115</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-115</c:v>
+                  <c:v>-120</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-120</c:v>
+                  <c:v>-125</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-125</c:v>
+                  <c:v>-130</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-130</c:v>
+                  <c:v>-135</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-135</c:v>
+                  <c:v>-136</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-136</c:v>
+                  <c:v>-140</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-140</c:v>
+                  <c:v>-142</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-142</c:v>
+                  <c:v>-147</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-147</c:v>
+                  <c:v>-151</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-151</c:v>
+                  <c:v>-155</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-155</c:v>
+                  <c:v>-157</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>-157</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-157</c:v>
+                  <c:v>-160</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-160</c:v>
+                  <c:v>-165</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-165</c:v>
+                  <c:v>-166</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-166</c:v>
+                  <c:v>-174</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-172</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-174</c:v>
-                </c:pt>
-                <c:pt idx="61">
                   <c:v>-180</c:v>
                 </c:pt>
               </c:numCache>
@@ -2790,7 +2739,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2826,7 +2775,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3152,10 +3101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7BF33E-E9A6-4BD6-8C5E-94ECB4CA28FA}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3194,7 +3143,7 @@
         <v>6.1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D33" si="0">20*LOG(C2/(B2/1000), 10)</f>
+        <f t="shared" ref="D2:D32" si="0">20*LOG(C2/(B2/1000), 10)</f>
         <v>38.804635899930197</v>
       </c>
       <c r="E2">
@@ -3419,97 +3368,97 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="B15">
         <v>70</v>
       </c>
       <c r="C15">
-        <v>8.44</v>
+        <v>8.6</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>41.624888132227966</v>
+        <v>41.788008224586207</v>
       </c>
       <c r="E15">
-        <v>-26</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="B16">
         <v>70</v>
       </c>
       <c r="C16">
-        <v>8.6</v>
+        <v>8.75</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>41.788008224586207</v>
+        <v>41.938200260161118</v>
       </c>
       <c r="E16">
-        <v>-32</v>
+        <v>-37.799999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>38000</v>
+        <v>39000</v>
       </c>
       <c r="B17">
         <v>70</v>
       </c>
       <c r="C17">
-        <v>8.75</v>
+        <v>8.9</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>41.938200260161118</v>
+        <v>42.085839332613119</v>
       </c>
       <c r="E17">
-        <v>-37.799999999999997</v>
+        <v>-39.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>39000</v>
+        <v>40000</v>
       </c>
       <c r="B18">
         <v>70</v>
       </c>
       <c r="C18">
-        <v>8.9</v>
+        <v>9.06</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>42.085839332613119</v>
+        <v>42.240603153251122</v>
       </c>
       <c r="E18">
-        <v>-39.5</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>40000</v>
+        <v>41000</v>
       </c>
       <c r="B19">
         <v>70</v>
       </c>
       <c r="C19">
-        <v>9.06</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>42.240603153251122</v>
+        <v>42.392657620787446</v>
       </c>
       <c r="E19">
-        <v>-39</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>41000</v>
+        <v>42000</v>
       </c>
       <c r="B20">
         <v>70</v>
@@ -3522,210 +3471,210 @@
         <v>42.392657620787446</v>
       </c>
       <c r="E20">
-        <v>-45</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="B21">
         <v>70</v>
       </c>
       <c r="C21">
-        <v>9.2200000000000006</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>42.392657620787446</v>
+        <v>42.679897212481386</v>
       </c>
       <c r="E21">
-        <v>-47</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>43000</v>
+        <v>44000</v>
       </c>
       <c r="B22">
         <v>70</v>
       </c>
       <c r="C22">
-        <v>9.5299999999999994</v>
+        <v>9.84</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>42.679897212481386</v>
+        <v>42.957941168341691</v>
       </c>
       <c r="E22">
-        <v>-48</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>44000</v>
+        <v>45000</v>
       </c>
       <c r="B23">
         <v>70</v>
       </c>
       <c r="C23">
-        <v>9.84</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>42.957941168341691</v>
+        <v>43.098039199714854</v>
       </c>
       <c r="E23">
-        <v>-50</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="B24">
         <v>70</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>10.16</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>43.098039199714854</v>
+        <v>43.235913358672875</v>
       </c>
       <c r="E24">
-        <v>-54</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>46000</v>
+        <v>47000</v>
       </c>
       <c r="B25">
         <v>70</v>
       </c>
       <c r="C25">
-        <v>10.16</v>
+        <v>10.46</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>43.235913358672875</v>
+        <v>43.48867289033997</v>
       </c>
       <c r="E25">
-        <v>-58</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>47000</v>
+        <v>48000</v>
       </c>
       <c r="B26">
         <v>70</v>
       </c>
       <c r="C26">
-        <v>10.46</v>
+        <v>10.78</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>43.48867289033997</v>
+        <v>43.750414416729257</v>
       </c>
       <c r="E26">
-        <v>-61</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>48000</v>
+        <v>49000</v>
       </c>
       <c r="B27">
         <v>70</v>
       </c>
       <c r="C27">
-        <v>10.78</v>
+        <v>10.94</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>43.750414416729257</v>
+        <v>43.878385639663094</v>
       </c>
       <c r="E27">
-        <v>-65</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>49000</v>
+        <v>50000</v>
       </c>
       <c r="B28">
         <v>70</v>
       </c>
       <c r="C28">
-        <v>10.94</v>
+        <v>11.1</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>43.878385639663094</v>
+        <v>44.004498775448006</v>
       </c>
       <c r="E28">
-        <v>-69</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>50000</v>
+        <v>51000</v>
       </c>
       <c r="B29">
         <v>70</v>
       </c>
       <c r="C29">
-        <v>11.1</v>
+        <v>11.25</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>44.004498775448006</v>
+        <v>44.121089648662483</v>
       </c>
       <c r="E29">
-        <v>-70</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>51000</v>
+        <v>52000</v>
       </c>
       <c r="B30">
         <v>70</v>
       </c>
       <c r="C30">
-        <v>11.25</v>
+        <v>11.4</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>44.121089648662483</v>
+        <v>44.236136226444316</v>
       </c>
       <c r="E30">
-        <v>-72</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>52000</v>
+        <v>53000</v>
       </c>
       <c r="B31">
         <v>70</v>
       </c>
       <c r="C31">
-        <v>11.4</v>
+        <v>11.56</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>44.236136226444316</v>
+        <v>44.357195881405069</v>
       </c>
       <c r="E31">
-        <v>-75</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>53000</v>
+        <v>54000</v>
       </c>
       <c r="B32">
         <v>70</v>
@@ -3738,30 +3687,30 @@
         <v>44.357195881405069</v>
       </c>
       <c r="E32">
-        <v>-77</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>54000</v>
+        <v>55000</v>
       </c>
       <c r="B33">
         <v>70</v>
       </c>
       <c r="C33">
-        <v>11.56</v>
+        <v>11.72</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>44.357195881405069</v>
+        <f t="shared" ref="D33:D61" si="1">20*LOG(C33/(B33/1000), 10)</f>
+        <v>44.47659143335629</v>
       </c>
       <c r="E33">
-        <v>-81</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>55000</v>
+        <v>56000</v>
       </c>
       <c r="B34">
         <v>70</v>
@@ -3770,16 +3719,16 @@
         <v>11.72</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D65" si="1">20*LOG(C34/(B34/1000), 10)</f>
+        <f t="shared" si="1"/>
         <v>44.47659143335629</v>
       </c>
       <c r="E34">
-        <v>-84</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>56000</v>
+        <v>57000</v>
       </c>
       <c r="B35">
         <v>70</v>
@@ -3792,12 +3741,12 @@
         <v>44.47659143335629</v>
       </c>
       <c r="E35">
-        <v>-88</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>57000</v>
+        <v>58000</v>
       </c>
       <c r="B36">
         <v>70</v>
@@ -3810,12 +3759,12 @@
         <v>44.47659143335629</v>
       </c>
       <c r="E36">
-        <v>-90</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>58000</v>
+        <v>59000</v>
       </c>
       <c r="B37">
         <v>70</v>
@@ -3828,346 +3777,346 @@
         <v>44.47659143335629</v>
       </c>
       <c r="E37">
-        <v>-92</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>59000</v>
+        <v>60000</v>
       </c>
       <c r="B38">
         <v>70</v>
       </c>
       <c r="C38">
-        <v>11.72</v>
+        <v>11.56</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>44.47659143335629</v>
+        <v>44.357195881405069</v>
       </c>
       <c r="E38">
-        <v>-94</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>60000</v>
+        <v>61000</v>
       </c>
       <c r="B39">
         <v>70</v>
       </c>
       <c r="C39">
-        <v>11.56</v>
+        <v>11.4</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>44.357195881405069</v>
+        <v>44.236136226444316</v>
       </c>
       <c r="E39">
-        <v>-97</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>61000</v>
+        <v>62000</v>
       </c>
       <c r="B40">
         <v>70</v>
       </c>
       <c r="C40">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>44.236136226444316</v>
+        <v>44.004498775448006</v>
       </c>
       <c r="E40">
-        <v>-101</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>62000</v>
+        <v>63000</v>
       </c>
       <c r="B41">
         <v>70</v>
       </c>
       <c r="C41">
-        <v>11.1</v>
+        <v>10.94</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>44.004498775448006</v>
+        <v>43.878385639663094</v>
       </c>
       <c r="E41">
-        <v>-105</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>63000</v>
+        <v>64000</v>
       </c>
       <c r="B42">
         <v>70</v>
       </c>
       <c r="C42">
-        <v>10.94</v>
+        <v>10.62</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>43.878385639663094</v>
+        <v>43.62052953462387</v>
       </c>
       <c r="E42">
-        <v>-108</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>64000</v>
+        <v>65000</v>
       </c>
       <c r="B43">
         <v>70</v>
       </c>
       <c r="C43">
-        <v>10.62</v>
+        <v>10.31</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>43.62052953462387</v>
+        <v>43.363212505385185</v>
       </c>
       <c r="E43">
-        <v>-110</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>65000</v>
+        <v>66000</v>
       </c>
       <c r="B44">
         <v>70</v>
       </c>
       <c r="C44">
-        <v>10.31</v>
+        <v>10.16</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>43.363212505385185</v>
+        <v>43.235913358672875</v>
       </c>
       <c r="E44">
-        <v>-112</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>66000</v>
+        <v>68000</v>
       </c>
       <c r="B45">
         <v>70</v>
       </c>
       <c r="C45">
-        <v>10.16</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>43.235913358672875</v>
+        <v>42.679897212481386</v>
       </c>
       <c r="E45">
-        <v>-115</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>68000</v>
+        <v>70000</v>
       </c>
       <c r="B46">
         <v>70</v>
       </c>
       <c r="C46">
-        <v>9.5299999999999994</v>
+        <v>8.9</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>42.679897212481386</v>
+        <v>42.085839332613119</v>
       </c>
       <c r="E46">
-        <v>-120</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>70000</v>
+        <v>72000</v>
       </c>
       <c r="B47">
         <v>70</v>
       </c>
       <c r="C47">
-        <v>8.9</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>42.085839332613119</v>
+        <v>41.458645935412463</v>
       </c>
       <c r="E47">
-        <v>-125</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>72000</v>
+        <v>74000</v>
       </c>
       <c r="B48">
         <v>70</v>
       </c>
       <c r="C48">
-        <v>8.2799999999999994</v>
+        <v>7.66</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>41.458645935412463</v>
+        <v>40.782614592366933</v>
       </c>
       <c r="E48">
-        <v>-130</v>
+        <v>-135</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>74000</v>
+        <v>76000</v>
       </c>
       <c r="B49">
         <v>70</v>
       </c>
       <c r="C49">
-        <v>7.66</v>
+        <v>7.18</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>40.782614592366933</v>
+        <v>40.220528084560868</v>
       </c>
       <c r="E49">
-        <v>-135</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>76000</v>
+        <v>78000</v>
       </c>
       <c r="B50">
         <v>70</v>
       </c>
       <c r="C50">
-        <v>7.18</v>
+        <v>6.72</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>40.220528084560868</v>
+        <v>39.645424660791363</v>
       </c>
       <c r="E50">
-        <v>-136</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="B51">
         <v>70</v>
       </c>
       <c r="C51">
-        <v>6.72</v>
+        <v>6.09</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>39.645424660791363</v>
+        <v>38.790385052372365</v>
       </c>
       <c r="E51">
-        <v>-140</v>
+        <v>-142</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>80000</v>
+        <v>82000</v>
       </c>
       <c r="B52">
         <v>70</v>
       </c>
       <c r="C52">
-        <v>6.09</v>
+        <v>5.78</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>38.790385052372365</v>
+        <v>38.336595968125444</v>
       </c>
       <c r="E52">
-        <v>-142</v>
+        <v>-147</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>82000</v>
+        <v>85000</v>
       </c>
       <c r="B53">
         <v>70</v>
       </c>
       <c r="C53">
-        <v>5.78</v>
+        <v>5.47</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>38.336595968125444</v>
+        <v>37.857785726383476</v>
       </c>
       <c r="E53">
-        <v>-147</v>
+        <v>-151</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>85000</v>
+        <v>90000</v>
       </c>
       <c r="B54">
         <v>70</v>
       </c>
       <c r="C54">
-        <v>5.47</v>
+        <v>4.53</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>37.857785726383476</v>
+        <v>36.220003239971497</v>
       </c>
       <c r="E54">
-        <v>-151</v>
+        <v>-155</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>90000</v>
+        <v>95000</v>
       </c>
       <c r="B55">
         <v>70</v>
       </c>
       <c r="C55">
-        <v>4.53</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>36.220003239971497</v>
+        <v>35.268559871258745</v>
       </c>
       <c r="E55">
-        <v>-155</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="B56">
         <v>70</v>
       </c>
       <c r="C56">
-        <v>4.0599999999999996</v>
+        <v>3.44</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>35.268559871258745</v>
+        <v>33.829208051145464</v>
       </c>
       <c r="E56">
         <v>-157</v>
@@ -4175,176 +4124,113 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="B57">
         <v>70</v>
       </c>
       <c r="C57">
-        <v>3.44</v>
+        <v>2.81</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>33.829208051145464</v>
+        <v>32.072165597816458</v>
       </c>
       <c r="E57">
-        <v>-157</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="B58">
         <v>70</v>
       </c>
       <c r="C58">
-        <v>2.81</v>
+        <v>2.4</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>32.072165597816458</v>
+        <v>30.702264033946982</v>
       </c>
       <c r="E58">
-        <v>-160</v>
+        <v>-165</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="B59">
         <v>70</v>
       </c>
       <c r="C59">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>30.702264033946982</v>
+        <v>28.673111218771439</v>
       </c>
       <c r="E59">
-        <v>-165</v>
+        <v>-166</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="B60">
         <v>70</v>
       </c>
       <c r="C60">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>28.673111218771439</v>
+        <v>28.057504526950993</v>
       </c>
       <c r="E60">
-        <v>-166</v>
+        <v>-174</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="B61">
         <v>70</v>
       </c>
       <c r="C61">
-        <v>2.1800000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>29.867169071806959</v>
+        <v>20.599264467548863</v>
       </c>
       <c r="E61">
-        <v>-172</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>150000</v>
-      </c>
-      <c r="B62">
-        <v>70</v>
-      </c>
-      <c r="C62">
-        <v>1.77</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="1"/>
-        <v>28.057504526950993</v>
-      </c>
-      <c r="E62">
-        <v>-174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>200000</v>
-      </c>
-      <c r="B63">
-        <v>70</v>
-      </c>
-      <c r="C63">
-        <v>0.75</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="1"/>
-        <v>20.599264467548863</v>
-      </c>
-      <c r="E63">
         <v>-180</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>300000</v>
-      </c>
-      <c r="B64">
-        <v>70</v>
-      </c>
-      <c r="C64">
-        <v>0.65</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="1"/>
-        <v>19.356306332571972</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>400000</v>
-      </c>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>70</v>
       </c>
-      <c r="C65">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="1"/>
-        <v>18.061799739838868</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>500000</v>
-      </c>
+      <c r="D65" t="e">
+        <f t="shared" ref="D65:D95" si="2">20*LOG(C65/(B65/1000), 10)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>70</v>
       </c>
-      <c r="C66">
-        <v>0.5</v>
-      </c>
-      <c r="D66">
-        <f t="shared" ref="D66:D97" si="2">20*LOG(C66/(B66/1000), 10)</f>
-        <v>17.07743928643524</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D66" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>70</v>
       </c>
@@ -4353,7 +4239,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>70</v>
       </c>
@@ -4362,7 +4248,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>70</v>
       </c>
@@ -4371,7 +4257,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>70</v>
       </c>
@@ -4380,7 +4266,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>70</v>
       </c>
@@ -4389,7 +4275,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>70</v>
       </c>
@@ -4398,7 +4284,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>70</v>
       </c>
@@ -4407,7 +4293,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>70</v>
       </c>
@@ -4416,7 +4302,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>70</v>
       </c>
@@ -4425,7 +4311,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>70</v>
       </c>
@@ -4434,7 +4320,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>70</v>
       </c>
@@ -4443,7 +4329,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>70</v>
       </c>
@@ -4452,7 +4338,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>70</v>
       </c>
@@ -4461,7 +4347,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>70</v>
       </c>
@@ -4610,7 +4496,7 @@
         <v>70</v>
       </c>
       <c r="D96" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D96:D126" si="3">20*LOG(C96/(B96/1000), 10)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4619,7 +4505,7 @@
         <v>70</v>
       </c>
       <c r="D97" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4628,7 +4514,7 @@
         <v>70</v>
       </c>
       <c r="D98" t="e">
-        <f t="shared" ref="D98:D129" si="3">20*LOG(C98/(B98/1000), 10)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4849,21 +4735,15 @@
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B123">
-        <v>70</v>
-      </c>
       <c r="D123" t="e">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B124">
-        <v>70</v>
-      </c>
       <c r="D124" t="e">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
@@ -4878,20 +4758,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D127" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D128" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E136">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E134">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
